--- a/data/trans_orig/P36B_4_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Habitat-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B1CCC8-46E2-4C1B-8DB2-DF25D4B080A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AB7930-2042-4C3D-A217-D597A14E7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{402A888D-C855-4484-A2C4-B1A360EA2FB6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E7934EF-DA29-4D5D-B3E4-ED89446C7825}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,1025 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+  <si>
+    <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>&lt;2.000hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
   <si>
     <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>76,51%</t>
   </si>
   <si>
@@ -98,9 +1085,6 @@
     <t>83,69%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>23,49%</t>
   </si>
   <si>
@@ -128,12 +1112,6 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
     <t>81,34%</t>
   </si>
   <si>
@@ -188,9 +1166,6 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
     <t>80,52%</t>
   </si>
   <si>
@@ -245,9 +1220,6 @@
     <t>19,63%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
     <t>71,95%</t>
   </si>
   <si>
@@ -302,9 +1274,6 @@
     <t>46,63%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
     <t>71,86%</t>
   </si>
   <si>
@@ -405,9 +1374,6 @@
   </si>
   <si>
     <t>27,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -819,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7BD2E5-9B37-43A6-B388-975A5B614976}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090ED16B-858F-48E0-B65D-2B13640E2732}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,10 +1903,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>77200</v>
+        <v>65673</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +1918,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>105127</v>
+        <v>69602</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +1933,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="N4" s="7">
-        <v>182326</v>
+        <v>135275</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +1954,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>23705</v>
+        <v>49685</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +1969,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>25606</v>
+        <v>43153</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +1984,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N5" s="7">
-        <v>49312</v>
+        <v>92838</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +2005,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +2020,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +2035,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>503</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7">
-        <v>447220</v>
+        <v>283439</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +2073,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>843</v>
+        <v>339</v>
       </c>
       <c r="I7" s="7">
-        <v>492198</v>
+        <v>347442</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +2088,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1346</v>
+        <v>622</v>
       </c>
       <c r="N7" s="7">
-        <v>939418</v>
+        <v>630882</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +2109,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>102603</v>
+        <v>294267</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +2124,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="I8" s="7">
-        <v>98805</v>
+        <v>228154</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +2139,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>258</v>
+        <v>523</v>
       </c>
       <c r="N8" s="7">
-        <v>201408</v>
+        <v>522420</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +2160,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>577706</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +2175,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>992</v>
+        <v>568</v>
       </c>
       <c r="I9" s="7">
-        <v>591003</v>
+        <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +2190,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1140826</v>
+        <v>1153302</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +2213,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>774</v>
+        <v>432</v>
       </c>
       <c r="D10" s="7">
-        <v>836768</v>
+        <v>455301</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +2228,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1289</v>
+        <v>493</v>
       </c>
       <c r="I10" s="7">
-        <v>891240</v>
+        <v>530798</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +2243,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>2063</v>
+        <v>925</v>
       </c>
       <c r="N10" s="7">
-        <v>1728008</v>
+        <v>986100</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>190</v>
+        <v>463</v>
       </c>
       <c r="D11" s="7">
-        <v>202480</v>
+        <v>505457</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +2279,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>414</v>
       </c>
       <c r="I11" s="7">
-        <v>167665</v>
+        <v>436535</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +2294,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>416</v>
+        <v>877</v>
       </c>
       <c r="N11" s="7">
-        <v>370146</v>
+        <v>941991</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>895</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>960758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +2330,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>907</v>
       </c>
       <c r="I12" s="7">
-        <v>1058905</v>
+        <v>967333</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +2345,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1802</v>
       </c>
       <c r="N12" s="7">
-        <v>2098154</v>
+        <v>1928091</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +2368,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>503</v>
+        <v>311</v>
       </c>
       <c r="D13" s="7">
-        <v>524338</v>
+        <v>328167</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +2383,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>792</v>
+        <v>400</v>
       </c>
       <c r="I13" s="7">
-        <v>567203</v>
+        <v>392594</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +2398,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1295</v>
+        <v>711</v>
       </c>
       <c r="N13" s="7">
-        <v>1091540</v>
+        <v>720761</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +2419,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="D14" s="7">
-        <v>204434</v>
+        <v>350342</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +2434,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="I14" s="7">
-        <v>307168</v>
+        <v>291247</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +2449,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>428</v>
+        <v>626</v>
       </c>
       <c r="N14" s="7">
-        <v>511602</v>
+        <v>641589</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +2470,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +2485,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +2500,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,10 +2523,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>744</v>
+        <v>447</v>
       </c>
       <c r="D16" s="7">
-        <v>693613</v>
+        <v>419078</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1572,10 +2538,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>1199</v>
+        <v>521</v>
       </c>
       <c r="I16" s="7">
-        <v>885509</v>
+        <v>545174</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1587,10 +2553,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>1943</v>
+        <v>968</v>
       </c>
       <c r="N16" s="7">
-        <v>1579122</v>
+        <v>964252</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1608,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>261</v>
+        <v>546</v>
       </c>
       <c r="D17" s="7">
-        <v>271630</v>
+        <v>522262</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1623,10 +2589,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>361</v>
+        <v>475</v>
       </c>
       <c r="I17" s="7">
-        <v>263698</v>
+        <v>492462</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1638,10 +2604,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>622</v>
+        <v>1021</v>
       </c>
       <c r="N17" s="7">
-        <v>535328</v>
+        <v>1014725</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1659,10 +2625,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="D18" s="7">
-        <v>965243</v>
+        <v>941340</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +2640,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>996</v>
       </c>
       <c r="I18" s="7">
-        <v>1149207</v>
+        <v>1037636</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +2655,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>1989</v>
       </c>
       <c r="N18" s="7">
-        <v>2114450</v>
+        <v>1978977</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1712,10 +2678,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2615</v>
+        <v>1532</v>
       </c>
       <c r="D19" s="7">
-        <v>2579138</v>
+        <v>1551659</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1727,10 +2693,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>4323</v>
+        <v>1831</v>
       </c>
       <c r="I19" s="7">
-        <v>2941275</v>
+        <v>1885611</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -1739,16 +2705,16 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3363</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3437270</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6938</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5520414</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>113</v>
@@ -1763,19 +2729,3208 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>1679</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1722012</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1464</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1491551</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3143</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3213563</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3211</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3273671</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3295</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3377162</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6506</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6650833</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A3F31A-167B-4DBE-BE72-2C9E75143C89}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7">
+        <v>71958</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="7">
+        <v>80</v>
+      </c>
+      <c r="I4" s="7">
+        <v>91085</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="7">
+        <v>154</v>
+      </c>
+      <c r="N4" s="7">
+        <v>163043</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43807</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="7">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20820</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="7">
+        <v>67</v>
+      </c>
+      <c r="N5" s="7">
+        <v>64627</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7">
+        <v>115765</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>111905</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>221</v>
+      </c>
+      <c r="N6" s="7">
+        <v>227670</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>355</v>
+      </c>
+      <c r="D7" s="7">
+        <v>376734</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="7">
+        <v>378</v>
+      </c>
+      <c r="I7" s="7">
+        <v>400782</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="7">
+        <v>733</v>
+      </c>
+      <c r="N7" s="7">
+        <v>777516</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>197</v>
+      </c>
+      <c r="D8" s="7">
+        <v>210970</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="7">
+        <v>173</v>
+      </c>
+      <c r="I8" s="7">
+        <v>184363</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="7">
+        <v>370</v>
+      </c>
+      <c r="N8" s="7">
+        <v>395333</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>552</v>
+      </c>
+      <c r="D9" s="7">
+        <v>587704</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>551</v>
+      </c>
+      <c r="I9" s="7">
+        <v>585145</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1103</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1172849</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>540</v>
+      </c>
+      <c r="D10" s="7">
+        <v>589305</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="7">
+        <v>647</v>
+      </c>
+      <c r="I10" s="7">
+        <v>703012</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1187</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1292317</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>393</v>
+      </c>
+      <c r="D11" s="7">
+        <v>425689</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="7">
+        <v>292</v>
+      </c>
+      <c r="I11" s="7">
+        <v>328085</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M11" s="7">
+        <v>685</v>
+      </c>
+      <c r="N11" s="7">
+        <v>753774</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>933</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1014994</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>939</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1031097</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1872</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2046091</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>386</v>
+      </c>
+      <c r="D13" s="7">
+        <v>425388</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="7">
+        <v>440</v>
+      </c>
+      <c r="I13" s="7">
+        <v>483421</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="7">
+        <v>826</v>
+      </c>
+      <c r="N13" s="7">
+        <v>908809</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>301</v>
+      </c>
+      <c r="D14" s="7">
+        <v>330126</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="7">
+        <v>263</v>
+      </c>
+      <c r="I14" s="7">
+        <v>291595</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="7">
+        <v>564</v>
+      </c>
+      <c r="N14" s="7">
+        <v>621721</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>687</v>
+      </c>
+      <c r="D15" s="7">
+        <v>755514</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>703</v>
+      </c>
+      <c r="I15" s="7">
+        <v>775016</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1390</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1530530</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>545</v>
+      </c>
+      <c r="D16" s="7">
+        <v>579554</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="7">
+        <v>699</v>
+      </c>
+      <c r="I16" s="7">
+        <v>733502</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1244</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1313056</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>365</v>
+      </c>
+      <c r="D17" s="7">
+        <v>368185</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="7">
+        <v>301</v>
+      </c>
+      <c r="I17" s="7">
+        <v>314308</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="7">
+        <v>666</v>
+      </c>
+      <c r="N17" s="7">
+        <v>682493</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>910</v>
+      </c>
+      <c r="D18" s="7">
+        <v>947739</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1047810</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1910</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1995549</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1900</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2042939</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2244</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2411801</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="7">
+        <v>4144</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4454740</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1304</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1378777</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1048</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1139171</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2352</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2517949</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3204</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3421716</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3292</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3550972</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6972689</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D097D2D8-6551-4613-B1BB-875762E34095}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <v>63123</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="7">
+        <v>72</v>
+      </c>
+      <c r="I4" s="7">
+        <v>71203</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" s="7">
+        <v>132</v>
+      </c>
+      <c r="N4" s="7">
+        <v>134326</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53423</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="7">
+        <v>43</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42157</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" s="7">
+        <v>96</v>
+      </c>
+      <c r="N5" s="7">
+        <v>95580</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>113</v>
+      </c>
+      <c r="D6" s="7">
+        <v>116546</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>115</v>
+      </c>
+      <c r="I6" s="7">
+        <v>113360</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>228</v>
+      </c>
+      <c r="N6" s="7">
+        <v>229906</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>303</v>
+      </c>
+      <c r="D7" s="7">
+        <v>311786</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="7">
+        <v>329</v>
+      </c>
+      <c r="I7" s="7">
+        <v>338304</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" s="7">
+        <v>632</v>
+      </c>
+      <c r="N7" s="7">
+        <v>650090</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>235</v>
+      </c>
+      <c r="D8" s="7">
+        <v>245419</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="7">
+        <v>222</v>
+      </c>
+      <c r="I8" s="7">
+        <v>221175</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M8" s="7">
+        <v>457</v>
+      </c>
+      <c r="N8" s="7">
+        <v>466594</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>538</v>
+      </c>
+      <c r="D9" s="7">
+        <v>557205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>551</v>
+      </c>
+      <c r="I9" s="7">
+        <v>559479</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1089</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1116684</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>512</v>
+      </c>
+      <c r="D10" s="7">
+        <v>549889</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="7">
+        <v>527</v>
+      </c>
+      <c r="I10" s="7">
+        <v>571516</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1039</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1121406</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>437</v>
+      </c>
+      <c r="D11" s="7">
+        <v>469735</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" s="7">
+        <v>447</v>
+      </c>
+      <c r="I11" s="7">
+        <v>467675</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M11" s="7">
+        <v>884</v>
+      </c>
+      <c r="N11" s="7">
+        <v>937410</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>949</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1019624</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>974</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1039191</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1923</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2058816</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>344</v>
+      </c>
+      <c r="D13" s="7">
+        <v>370932</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="7">
+        <v>390</v>
+      </c>
+      <c r="I13" s="7">
+        <v>420829</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M13" s="7">
+        <v>734</v>
+      </c>
+      <c r="N13" s="7">
+        <v>791761</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>351</v>
+      </c>
+      <c r="D14" s="7">
+        <v>387634</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="7">
+        <v>346</v>
+      </c>
+      <c r="I14" s="7">
+        <v>364182</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M14" s="7">
+        <v>697</v>
+      </c>
+      <c r="N14" s="7">
+        <v>751815</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>695</v>
+      </c>
+      <c r="D15" s="7">
+        <v>758566</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>736</v>
+      </c>
+      <c r="I15" s="7">
+        <v>785011</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1431</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1543576</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>541</v>
+      </c>
+      <c r="D16" s="7">
+        <v>549888</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="7">
+        <v>628</v>
+      </c>
+      <c r="I16" s="7">
+        <v>694460</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1169</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1244348</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>389</v>
+      </c>
+      <c r="D17" s="7">
+        <v>385722</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="7">
+        <v>329</v>
+      </c>
+      <c r="I17" s="7">
+        <v>347211</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M17" s="7">
+        <v>718</v>
+      </c>
+      <c r="N17" s="7">
+        <v>732933</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>930</v>
+      </c>
+      <c r="D18" s="7">
+        <v>935610</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>957</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1041671</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1887</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1977281</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1760</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1845619</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1946</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2096313</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3706</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3941932</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1465</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1541931</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1387</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1442399</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2852</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2984331</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3225</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3387550</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3538712</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6558</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6926263</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAB1DF0-2C1C-4CC7-B92C-E2D6317FF845}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7">
+        <v>77200</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="7">
+        <v>200</v>
+      </c>
+      <c r="I4" s="7">
+        <v>105127</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M4" s="7">
+        <v>291</v>
+      </c>
+      <c r="N4" s="7">
+        <v>182326</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23705</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="7">
+        <v>43</v>
+      </c>
+      <c r="I5" s="7">
+        <v>25606</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="7">
+        <v>69</v>
+      </c>
+      <c r="N5" s="7">
+        <v>49312</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>117</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100905</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>243</v>
+      </c>
+      <c r="I6" s="7">
+        <v>130733</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>360</v>
+      </c>
+      <c r="N6" s="7">
+        <v>231638</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>503</v>
+      </c>
+      <c r="D7" s="7">
+        <v>447220</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H7" s="7">
+        <v>843</v>
+      </c>
+      <c r="I7" s="7">
+        <v>492198</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1346</v>
+      </c>
+      <c r="N7" s="7">
+        <v>939418</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>109</v>
+      </c>
+      <c r="D8" s="7">
+        <v>102603</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H8" s="7">
+        <v>149</v>
+      </c>
+      <c r="I8" s="7">
+        <v>98805</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M8" s="7">
+        <v>258</v>
+      </c>
+      <c r="N8" s="7">
+        <v>201408</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>612</v>
+      </c>
+      <c r="D9" s="7">
+        <v>549823</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>992</v>
+      </c>
+      <c r="I9" s="7">
+        <v>591003</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1604</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1140826</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>774</v>
+      </c>
+      <c r="D10" s="7">
+        <v>836768</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1289</v>
+      </c>
+      <c r="I10" s="7">
+        <v>891240</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2063</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1728008</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>190</v>
+      </c>
+      <c r="D11" s="7">
+        <v>202480</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H11" s="7">
+        <v>226</v>
+      </c>
+      <c r="I11" s="7">
+        <v>167665</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M11" s="7">
+        <v>416</v>
+      </c>
+      <c r="N11" s="7">
+        <v>370146</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>964</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1039248</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1515</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1058905</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2479</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2098154</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>503</v>
+      </c>
+      <c r="D13" s="7">
+        <v>524338</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H13" s="7">
+        <v>792</v>
+      </c>
+      <c r="I13" s="7">
+        <v>567203</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1295</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1091540</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>173</v>
+      </c>
+      <c r="D14" s="7">
+        <v>204434</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="7">
+        <v>255</v>
+      </c>
+      <c r="I14" s="7">
+        <v>307168</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M14" s="7">
+        <v>428</v>
+      </c>
+      <c r="N14" s="7">
+        <v>511602</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>676</v>
+      </c>
+      <c r="D15" s="7">
+        <v>728772</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1047</v>
+      </c>
+      <c r="I15" s="7">
+        <v>874371</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1723</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1603142</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>744</v>
+      </c>
+      <c r="D16" s="7">
+        <v>693613</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1199</v>
+      </c>
+      <c r="I16" s="7">
+        <v>885509</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1943</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1579122</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>261</v>
+      </c>
+      <c r="D17" s="7">
+        <v>271630</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H17" s="7">
+        <v>361</v>
+      </c>
+      <c r="I17" s="7">
+        <v>263698</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M17" s="7">
+        <v>622</v>
+      </c>
+      <c r="N17" s="7">
+        <v>535328</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D18" s="7">
+        <v>965243</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1560</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1149207</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2565</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2114450</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2615</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2579138</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4323</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2941275</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6938</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5520414</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
         <v>759</v>
       </c>
       <c r="D20" s="7">
         <v>804853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>1034</v>
@@ -1784,13 +5939,13 @@
         <v>862943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>1793</v>
@@ -1799,13 +5954,13 @@
         <v>1667796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_4_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2AB7930-2042-4C3D-A217-D597A14E7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B187ED-4253-466F-AFB7-DC1FEEA644C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E7934EF-DA29-4D5D-B3E4-ED89446C7825}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3513E1C3-87A7-46B6-A121-1736D0F93043}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1198 +140,1162 @@
     <t>49,06%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
   </si>
   <si>
     <t>60,36%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>48,32%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
   </si>
   <si>
     <t>50,79%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>49,21%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>49,9%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>72,53%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>74,28%</t>
+    <t>74,44%</t>
   </si>
   <si>
     <t>77,95%</t>
@@ -1340,16 +1304,19 @@
     <t>77,32%</t>
   </si>
   <si>
-    <t>70,15%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>23,78%</t>
@@ -1358,22 +1325,25 @@
     <t>22,05%</t>
   </si>
   <si>
-    <t>25,72%</t>
+    <t>25,56%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>29,85%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090ED16B-858F-48E0-B65D-2B13640E2732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39FF7B8-7108-4F8B-9F9C-62D2D3875A57}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,13 +2189,13 @@
         <v>455301</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>493</v>
@@ -2234,13 +2204,13 @@
         <v>530798</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>925</v>
@@ -2249,13 +2219,13 @@
         <v>986100</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2240,13 @@
         <v>505457</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>414</v>
@@ -2285,13 +2255,13 @@
         <v>436535</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>877</v>
@@ -2300,13 +2270,13 @@
         <v>941991</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2374,13 +2344,13 @@
         <v>328167</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>400</v>
@@ -2389,13 +2359,13 @@
         <v>392594</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>711</v>
@@ -2404,13 +2374,13 @@
         <v>720761</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2395,13 @@
         <v>350342</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>296</v>
@@ -2440,13 +2410,13 @@
         <v>291247</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>626</v>
@@ -2455,13 +2425,13 @@
         <v>641589</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2529,13 +2499,13 @@
         <v>419078</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>521</v>
@@ -2544,13 +2514,13 @@
         <v>545174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>968</v>
@@ -2559,13 +2529,13 @@
         <v>964252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2550,13 @@
         <v>522262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>475</v>
@@ -2595,13 +2565,13 @@
         <v>492462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1021</v>
@@ -2610,13 +2580,13 @@
         <v>1014725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2654,13 @@
         <v>1551659</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>1831</v>
@@ -2699,13 +2669,13 @@
         <v>1885611</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>3363</v>
@@ -2714,13 +2684,13 @@
         <v>3437270</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2705,13 @@
         <v>1722012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>1464</v>
@@ -2750,13 +2720,13 @@
         <v>1491551</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>3143</v>
@@ -2765,13 +2735,13 @@
         <v>3213563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2848,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A3F31A-167B-4DBE-BE72-2C9E75143C89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9B9D59-3AE7-4AC2-91AD-F257B5ED6850}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2865,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2972,13 +2942,13 @@
         <v>71958</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>80</v>
@@ -2987,13 +2957,13 @@
         <v>91085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>154</v>
@@ -3002,13 +2972,13 @@
         <v>163043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +2993,13 @@
         <v>43807</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -3038,13 +3008,13 @@
         <v>20820</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -3053,13 +3023,13 @@
         <v>64627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3097,13 @@
         <v>376734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -3142,13 +3112,13 @@
         <v>400782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>733</v>
@@ -3157,13 +3127,13 @@
         <v>777516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3148,13 @@
         <v>210970</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -3193,13 +3163,13 @@
         <v>184363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>370</v>
@@ -3208,13 +3178,13 @@
         <v>395333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3252,13 @@
         <v>589305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>647</v>
@@ -3297,13 +3267,13 @@
         <v>703012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>1187</v>
@@ -3312,13 +3282,13 @@
         <v>1292317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3303,13 @@
         <v>425689</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -3348,13 +3318,13 @@
         <v>328085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>685</v>
@@ -3363,13 +3333,13 @@
         <v>753774</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3437,13 +3407,13 @@
         <v>425388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>440</v>
@@ -3452,13 +3422,13 @@
         <v>483421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>826</v>
@@ -3467,13 +3437,13 @@
         <v>908809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3458,13 @@
         <v>330126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -3503,13 +3473,13 @@
         <v>291595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>564</v>
@@ -3518,13 +3488,13 @@
         <v>621721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3592,13 +3562,13 @@
         <v>579554</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>699</v>
@@ -3607,13 +3577,13 @@
         <v>733502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>1244</v>
@@ -3622,13 +3592,13 @@
         <v>1313056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3613,13 @@
         <v>368185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>301</v>
@@ -3658,13 +3628,13 @@
         <v>314308</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>666</v>
@@ -3673,13 +3643,13 @@
         <v>682493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,16 +3714,16 @@
         <v>1900</v>
       </c>
       <c r="D19" s="7">
-        <v>2042939</v>
+        <v>2042940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>2244</v>
@@ -3762,13 +3732,13 @@
         <v>2411801</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>4144</v>
@@ -3777,13 +3747,13 @@
         <v>4454740</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3768,13 @@
         <v>1378777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>1048</v>
@@ -3813,13 +3783,13 @@
         <v>1139171</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7">
         <v>2352</v>
@@ -3828,13 +3798,13 @@
         <v>2517949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3816,7 @@
         <v>3204</v>
       </c>
       <c r="D21" s="7">
-        <v>3421716</v>
+        <v>3421717</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3890,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D097D2D8-6551-4613-B1BB-875762E34095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D134288-0ADF-447E-A50E-598AA5EDFE80}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,13 +4005,13 @@
         <v>63123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4050,13 +4020,13 @@
         <v>71203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>132</v>
@@ -4065,13 +4035,13 @@
         <v>134326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4056,13 @@
         <v>53423</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4101,13 +4071,13 @@
         <v>42157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>96</v>
@@ -4116,13 +4086,13 @@
         <v>95580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4160,13 @@
         <v>311786</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>329</v>
@@ -4205,13 +4175,13 @@
         <v>338304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>632</v>
@@ -4220,13 +4190,13 @@
         <v>650090</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4211,13 @@
         <v>245419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>222</v>
@@ -4256,13 +4226,13 @@
         <v>221175</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
@@ -4271,13 +4241,13 @@
         <v>466594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4315,13 @@
         <v>549889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -4360,13 +4330,13 @@
         <v>571516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>1039</v>
@@ -4375,13 +4345,13 @@
         <v>1121406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4366,13 @@
         <v>469735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>447</v>
@@ -4411,13 +4381,13 @@
         <v>467675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>884</v>
@@ -4426,13 +4396,13 @@
         <v>937410</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4500,13 +4470,13 @@
         <v>370932</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>390</v>
@@ -4515,13 +4485,13 @@
         <v>420829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>734</v>
@@ -4530,13 +4500,13 @@
         <v>791761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4521,13 @@
         <v>387634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>346</v>
@@ -4566,13 +4536,13 @@
         <v>364182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -4581,13 +4551,13 @@
         <v>751815</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4655,13 +4625,13 @@
         <v>549888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>628</v>
@@ -4670,13 +4640,13 @@
         <v>694460</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>1169</v>
@@ -4685,13 +4655,13 @@
         <v>1244348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4676,13 @@
         <v>385722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>329</v>
@@ -4721,13 +4691,13 @@
         <v>347211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>718</v>
@@ -4736,13 +4706,13 @@
         <v>732933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4780,13 @@
         <v>1845619</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>1946</v>
@@ -4825,13 +4795,13 @@
         <v>2096313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>3706</v>
@@ -4840,13 +4810,13 @@
         <v>3941932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4831,13 @@
         <v>1541931</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>1387</v>
@@ -4876,13 +4846,13 @@
         <v>1442399</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>2852</v>
@@ -4891,13 +4861,13 @@
         <v>2984331</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAB1DF0-2C1C-4CC7-B92C-E2D6317FF845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12010019-824C-425B-83D0-1949703618E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,13 +5068,13 @@
         <v>77200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>200</v>
@@ -5113,13 +5083,13 @@
         <v>105127</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>291</v>
@@ -5128,13 +5098,13 @@
         <v>182326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5119,13 @@
         <v>23705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -5164,13 +5134,13 @@
         <v>25606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -5179,13 +5149,13 @@
         <v>49312</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5223,13 @@
         <v>447220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>843</v>
@@ -5268,13 +5238,13 @@
         <v>492198</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>1346</v>
@@ -5283,13 +5253,13 @@
         <v>939418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5274,13 @@
         <v>102603</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>149</v>
@@ -5319,13 +5289,13 @@
         <v>98805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>258</v>
@@ -5334,13 +5304,13 @@
         <v>201408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5378,13 @@
         <v>836768</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>1289</v>
@@ -5423,13 +5393,13 @@
         <v>891240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>2063</v>
@@ -5438,13 +5408,13 @@
         <v>1728008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5429,13 @@
         <v>202480</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>226</v>
@@ -5474,13 +5444,13 @@
         <v>167665</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>416</v>
@@ -5489,13 +5459,13 @@
         <v>370146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5563,13 +5533,13 @@
         <v>524338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>792</v>
@@ -5578,13 +5548,13 @@
         <v>567203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>1295</v>
@@ -5593,13 +5563,13 @@
         <v>1091540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5584,13 @@
         <v>204434</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -5629,13 +5599,13 @@
         <v>307168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -5644,13 +5614,13 @@
         <v>511602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5715,16 +5685,16 @@
         <v>744</v>
       </c>
       <c r="D16" s="7">
-        <v>693613</v>
+        <v>693614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>1199</v>
@@ -5733,13 +5703,13 @@
         <v>885509</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1943</v>
@@ -5748,13 +5718,13 @@
         <v>1579122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5739,13 @@
         <v>271630</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -5784,13 +5754,13 @@
         <v>263698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>622</v>
@@ -5799,13 +5769,13 @@
         <v>535328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,7 +5787,7 @@
         <v>1005</v>
       </c>
       <c r="D18" s="7">
-        <v>965243</v>
+        <v>965244</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5873,13 +5843,13 @@
         <v>2579138</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>4323</v>
@@ -5888,13 +5858,13 @@
         <v>2941275</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>6938</v>
@@ -5903,13 +5873,13 @@
         <v>5520414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5894,13 @@
         <v>804853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>1034</v>
@@ -5939,13 +5909,13 @@
         <v>862943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>1793</v>
@@ -5954,13 +5924,13 @@
         <v>1667796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B_4_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B187ED-4253-466F-AFB7-DC1FEEA644C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D1C55D-0459-4C5D-B4D1-605A56FCE352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3513E1C3-87A7-46B6-A121-1736D0F93043}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A2359BD-7DFC-484D-835A-4592E1C572AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,1282 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>56,93%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>47,39%</t>
   </si>
   <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,73%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>46,39%</t>
   </si>
   <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39FF7B8-7108-4F8B-9F9C-62D2D3875A57}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C158043A-C574-4696-BA50-03D1F4FC093D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="D4" s="7">
-        <v>65673</v>
+        <v>349113</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="I4" s="7">
-        <v>69602</v>
+        <v>417044</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>137</v>
+        <v>759</v>
       </c>
       <c r="N4" s="7">
-        <v>135275</v>
+        <v>766157</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="D5" s="7">
-        <v>49685</v>
+        <v>343951</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="I5" s="7">
-        <v>43153</v>
+        <v>271307</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>619</v>
       </c>
       <c r="N5" s="7">
-        <v>92838</v>
+        <v>615258</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>693064</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381415</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>283</v>
+        <v>432</v>
       </c>
       <c r="D7" s="7">
-        <v>283439</v>
+        <v>455301</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>339</v>
+        <v>493</v>
       </c>
       <c r="I7" s="7">
-        <v>347442</v>
+        <v>530798</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>622</v>
+        <v>925</v>
       </c>
       <c r="N7" s="7">
-        <v>630882</v>
+        <v>986100</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>294</v>
+        <v>463</v>
       </c>
       <c r="D8" s="7">
-        <v>294267</v>
+        <v>505457</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>229</v>
+        <v>414</v>
       </c>
       <c r="I8" s="7">
-        <v>228154</v>
+        <v>436535</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>523</v>
+        <v>877</v>
       </c>
       <c r="N8" s="7">
-        <v>522420</v>
+        <v>941991</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>577706</v>
+        <v>960758</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>967333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1802</v>
       </c>
       <c r="N9" s="7">
-        <v>1153302</v>
+        <v>1928091</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,49 +1982,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>432</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7">
-        <v>455301</v>
+        <v>328167</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>493</v>
+        <v>400</v>
       </c>
       <c r="I10" s="7">
-        <v>530798</v>
+        <v>392594</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>925</v>
+        <v>711</v>
       </c>
       <c r="N10" s="7">
-        <v>986100</v>
+        <v>720761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2033,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>505457</v>
+        <v>350342</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="I11" s="7">
-        <v>436535</v>
+        <v>291247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>877</v>
+        <v>626</v>
       </c>
       <c r="N11" s="7">
-        <v>941991</v>
+        <v>641589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>895</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>960758</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>967333</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1802</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1928091</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,55 +2131,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>311</v>
+        <v>447</v>
       </c>
       <c r="D13" s="7">
-        <v>328167</v>
+        <v>419078</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="I13" s="7">
-        <v>392594</v>
+        <v>545174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
-        <v>711</v>
+        <v>968</v>
       </c>
       <c r="N13" s="7">
-        <v>720761</v>
+        <v>964252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,40 +2188,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>330</v>
+        <v>546</v>
       </c>
       <c r="D14" s="7">
-        <v>350342</v>
+        <v>522262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>296</v>
+        <v>475</v>
       </c>
       <c r="I14" s="7">
-        <v>291247</v>
+        <v>492462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>626</v>
+        <v>1021</v>
       </c>
       <c r="N14" s="7">
-        <v>641589</v>
+        <v>1014725</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2440,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1037636</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1989</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1978977</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>447</v>
+        <v>1532</v>
       </c>
       <c r="D16" s="7">
-        <v>419078</v>
+        <v>1551659</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1831</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1885611</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>521</v>
-      </c>
-      <c r="I16" s="7">
-        <v>545174</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3363</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3437270</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="7">
-        <v>968</v>
-      </c>
-      <c r="N16" s="7">
-        <v>964252</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>546</v>
+        <v>1679</v>
       </c>
       <c r="D17" s="7">
-        <v>522262</v>
+        <v>1722012</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1464</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1491551</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>475</v>
-      </c>
-      <c r="I17" s="7">
-        <v>492462</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3143</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3213563</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="7">
-        <v>1021</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1014725</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3211</v>
       </c>
       <c r="D18" s="7">
-        <v>941340</v>
+        <v>3273671</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1037636</v>
+        <v>3377162</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1989</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1978977</v>
+        <v>6650833</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1532</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1551659</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1831</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1885611</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3363</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3437270</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1679</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1722012</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1464</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1491551</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3143</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3213563</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3211</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3273671</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377162</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6650833</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9B9D59-3AE7-4AC2-91AD-F257B5ED6850}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF60F19A-1501-48D9-9A63-F52AF20FA4AF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="D4" s="7">
-        <v>71958</v>
+        <v>448692</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="I4" s="7">
-        <v>91085</v>
+        <v>491866</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>154</v>
+        <v>887</v>
       </c>
       <c r="N4" s="7">
-        <v>163043</v>
+        <v>940558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D5" s="7">
-        <v>43807</v>
+        <v>254777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>20820</v>
+        <v>205184</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>437</v>
       </c>
       <c r="N5" s="7">
-        <v>64627</v>
+        <v>459961</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>355</v>
+        <v>540</v>
       </c>
       <c r="D7" s="7">
-        <v>376734</v>
+        <v>589305</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>378</v>
+        <v>647</v>
       </c>
       <c r="I7" s="7">
-        <v>400782</v>
+        <v>703012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>733</v>
+        <v>1187</v>
       </c>
       <c r="N7" s="7">
-        <v>777516</v>
+        <v>1292317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="D8" s="7">
-        <v>210970</v>
+        <v>425689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="I8" s="7">
-        <v>184363</v>
+        <v>328085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
-        <v>370</v>
+        <v>685</v>
       </c>
       <c r="N8" s="7">
-        <v>395333</v>
+        <v>753774</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>933</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1014994</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1031097</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046091</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>540</v>
+        <v>386</v>
       </c>
       <c r="D10" s="7">
-        <v>589305</v>
+        <v>425388</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
-        <v>647</v>
+        <v>440</v>
       </c>
       <c r="I10" s="7">
-        <v>703012</v>
+        <v>483421</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>1187</v>
+        <v>826</v>
       </c>
       <c r="N10" s="7">
-        <v>1292317</v>
+        <v>908809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="D11" s="7">
-        <v>425689</v>
+        <v>330126</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="I11" s="7">
-        <v>328085</v>
+        <v>291595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>685</v>
+        <v>564</v>
       </c>
       <c r="N11" s="7">
-        <v>753774</v>
+        <v>621721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>933</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1014994</v>
+        <v>755514</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1031097</v>
+        <v>775016</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1872</v>
+        <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>2046091</v>
+        <v>1530530</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,55 +3038,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>386</v>
+        <v>545</v>
       </c>
       <c r="D13" s="7">
-        <v>425388</v>
+        <v>579554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>440</v>
+        <v>699</v>
       </c>
       <c r="I13" s="7">
-        <v>483421</v>
+        <v>733502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>826</v>
+        <v>1244</v>
       </c>
       <c r="N13" s="7">
-        <v>908809</v>
+        <v>1313056</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>365</v>
+      </c>
+      <c r="D14" s="7">
+        <v>368185</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7">
         <v>301</v>
       </c>
-      <c r="D14" s="7">
-        <v>330126</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="7">
-        <v>263</v>
-      </c>
       <c r="I14" s="7">
-        <v>291595</v>
+        <v>314308</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>564</v>
+        <v>666</v>
       </c>
       <c r="N14" s="7">
-        <v>621721</v>
+        <v>682493</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>755514</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>775016</v>
+        <v>1047810</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1390</v>
+        <v>1910</v>
       </c>
       <c r="N15" s="7">
-        <v>1530530</v>
+        <v>1995549</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>545</v>
+        <v>1900</v>
       </c>
       <c r="D16" s="7">
-        <v>579554</v>
+        <v>2042940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>699</v>
+        <v>2244</v>
       </c>
       <c r="I16" s="7">
-        <v>733502</v>
+        <v>2411801</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>1244</v>
+        <v>4144</v>
       </c>
       <c r="N16" s="7">
-        <v>1313056</v>
+        <v>4454740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>365</v>
+        <v>1304</v>
       </c>
       <c r="D17" s="7">
-        <v>368185</v>
+        <v>1378777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
-        <v>301</v>
+        <v>1048</v>
       </c>
       <c r="I17" s="7">
-        <v>314308</v>
+        <v>1139171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>666</v>
+        <v>2352</v>
       </c>
       <c r="N17" s="7">
-        <v>682493</v>
+        <v>2517949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3421717</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3292</v>
       </c>
       <c r="I18" s="7">
-        <v>1047810</v>
+        <v>3550972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1910</v>
+        <v>6496</v>
       </c>
       <c r="N18" s="7">
-        <v>1995549</v>
+        <v>6972689</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1900</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2042940</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2244</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2411801</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4144</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4454740</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1304</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1378777</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1048</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1139171</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2352</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2517949</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421717</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3292</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3550972</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6496</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6972689</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D134288-0ADF-447E-A50E-598AA5EDFE80}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990BDE-CF53-44C5-8088-1C0CD4BB1AE7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>60</v>
+        <v>363</v>
       </c>
       <c r="D4" s="7">
-        <v>63123</v>
+        <v>374909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="I4" s="7">
-        <v>71203</v>
+        <v>409507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>132</v>
+        <v>764</v>
       </c>
       <c r="N4" s="7">
-        <v>134326</v>
+        <v>784417</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="D5" s="7">
-        <v>53423</v>
+        <v>298842</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="I5" s="7">
-        <v>42157</v>
+        <v>263332</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>553</v>
       </c>
       <c r="N5" s="7">
-        <v>95580</v>
+        <v>562173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>673751</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1346590</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="D7" s="7">
-        <v>311786</v>
+        <v>549889</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>329</v>
+        <v>527</v>
       </c>
       <c r="I7" s="7">
-        <v>338304</v>
+        <v>571516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>632</v>
+        <v>1039</v>
       </c>
       <c r="N7" s="7">
-        <v>650090</v>
+        <v>1121406</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>235</v>
+        <v>437</v>
       </c>
       <c r="D8" s="7">
-        <v>245419</v>
+        <v>469735</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
+        <v>447</v>
+      </c>
+      <c r="I8" s="7">
+        <v>467675</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M8" s="7">
+        <v>884</v>
+      </c>
+      <c r="N8" s="7">
+        <v>937410</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="I8" s="7">
-        <v>221175</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M8" s="7">
-        <v>457</v>
-      </c>
-      <c r="N8" s="7">
-        <v>466594</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>949</v>
       </c>
       <c r="D9" s="7">
-        <v>557205</v>
+        <v>1019624</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1039191</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1089</v>
+        <v>1923</v>
       </c>
       <c r="N9" s="7">
-        <v>1116684</v>
+        <v>2058816</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>512</v>
+        <v>344</v>
       </c>
       <c r="D10" s="7">
-        <v>549889</v>
+        <v>370932</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>527</v>
+        <v>390</v>
       </c>
       <c r="I10" s="7">
-        <v>571516</v>
+        <v>420829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>1039</v>
+        <v>734</v>
       </c>
       <c r="N10" s="7">
-        <v>1121406</v>
+        <v>791762</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>437</v>
+        <v>351</v>
       </c>
       <c r="D11" s="7">
-        <v>469735</v>
+        <v>387634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>447</v>
+        <v>346</v>
       </c>
       <c r="I11" s="7">
-        <v>467675</v>
+        <v>364182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>884</v>
+        <v>697</v>
       </c>
       <c r="N11" s="7">
-        <v>937410</v>
+        <v>751815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>949</v>
+        <v>695</v>
       </c>
       <c r="D12" s="7">
-        <v>1019624</v>
+        <v>758566</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1039191</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1923</v>
+        <v>1431</v>
       </c>
       <c r="N12" s="7">
-        <v>2058816</v>
+        <v>1543577</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,55 +3945,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>344</v>
+        <v>541</v>
       </c>
       <c r="D13" s="7">
-        <v>370932</v>
+        <v>549888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>390</v>
+        <v>628</v>
       </c>
       <c r="I13" s="7">
-        <v>420829</v>
+        <v>694460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>734</v>
+        <v>1169</v>
       </c>
       <c r="N13" s="7">
-        <v>791761</v>
+        <v>1244348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="D14" s="7">
-        <v>387634</v>
+        <v>385722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="I14" s="7">
-        <v>364182</v>
+        <v>347211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="N14" s="7">
-        <v>751815</v>
+        <v>732933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>930</v>
       </c>
       <c r="D15" s="7">
-        <v>758566</v>
+        <v>935610</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1041671</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1431</v>
+        <v>1887</v>
       </c>
       <c r="N15" s="7">
-        <v>1543576</v>
+        <v>1977281</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>541</v>
+        <v>1760</v>
       </c>
       <c r="D16" s="7">
-        <v>549888</v>
+        <v>1845619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>628</v>
+        <v>1946</v>
       </c>
       <c r="I16" s="7">
-        <v>694460</v>
+        <v>2096313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>1169</v>
+        <v>3706</v>
       </c>
       <c r="N16" s="7">
-        <v>1244348</v>
+        <v>3941932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>389</v>
+        <v>1465</v>
       </c>
       <c r="D17" s="7">
-        <v>385722</v>
+        <v>1541931</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>329</v>
+        <v>1387</v>
       </c>
       <c r="I17" s="7">
-        <v>347211</v>
+        <v>1442399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>718</v>
+        <v>2852</v>
       </c>
       <c r="N17" s="7">
-        <v>732933</v>
+        <v>2984331</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>930</v>
+        <v>3225</v>
       </c>
       <c r="D18" s="7">
-        <v>935610</v>
+        <v>3387550</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>957</v>
+        <v>3333</v>
       </c>
       <c r="I18" s="7">
-        <v>1041671</v>
+        <v>3538712</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1887</v>
+        <v>6558</v>
       </c>
       <c r="N18" s="7">
-        <v>1977281</v>
+        <v>6926263</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1760</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1845619</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1946</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2096313</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3706</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3941932</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1465</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1541931</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1387</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1442399</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2852</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2984331</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3225</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3387550</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3333</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3538712</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6558</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6926263</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12010019-824C-425B-83D0-1949703618E6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8EE2DC-AF86-4DFB-980C-5D2D525D4E45}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>594</v>
       </c>
       <c r="D4" s="7">
-        <v>77200</v>
+        <v>504030</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>200</v>
+        <v>1043</v>
       </c>
       <c r="I4" s="7">
-        <v>105127</v>
+        <v>553115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>291</v>
+        <v>1637</v>
       </c>
       <c r="N4" s="7">
-        <v>182326</v>
+        <v>1057145</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>23705</v>
+        <v>130382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>25606</v>
+        <v>120813</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="N5" s="7">
-        <v>49312</v>
+        <v>251195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1235</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>673928</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1308340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>503</v>
+        <v>774</v>
       </c>
       <c r="D7" s="7">
-        <v>447220</v>
+        <v>985141</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>843</v>
+        <v>1289</v>
       </c>
       <c r="I7" s="7">
-        <v>492198</v>
+        <v>801327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>1346</v>
+        <v>2063</v>
       </c>
       <c r="N7" s="7">
-        <v>939418</v>
+        <v>1786469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7">
-        <v>102603</v>
+        <v>207723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>98805</v>
+        <v>156249</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="N8" s="7">
-        <v>201408</v>
+        <v>363972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>992</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591003</v>
+        <v>957576</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1140826</v>
+        <v>2150441</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>774</v>
+        <v>503</v>
       </c>
       <c r="D10" s="7">
-        <v>836768</v>
+        <v>504760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
-        <v>1289</v>
+        <v>792</v>
       </c>
       <c r="I10" s="7">
-        <v>891240</v>
+        <v>542849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
-        <v>2063</v>
+        <v>1295</v>
       </c>
       <c r="N10" s="7">
-        <v>1728008</v>
+        <v>1047610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7">
-        <v>202480</v>
+        <v>199920</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>167665</v>
+        <v>390517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="N11" s="7">
-        <v>370146</v>
+        <v>590436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058905</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098154</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,55 +4852,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>503</v>
+        <v>744</v>
       </c>
       <c r="D13" s="7">
-        <v>524338</v>
+        <v>651751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>792</v>
+        <v>1199</v>
       </c>
       <c r="I13" s="7">
-        <v>567203</v>
+        <v>844808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>1295</v>
+        <v>1943</v>
       </c>
       <c r="N13" s="7">
-        <v>1091540</v>
+        <v>1496560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="D14" s="7">
-        <v>204434</v>
+        <v>274916</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>255</v>
+        <v>361</v>
       </c>
       <c r="I14" s="7">
-        <v>307168</v>
+        <v>248994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>428</v>
+        <v>622</v>
       </c>
       <c r="N14" s="7">
-        <v>511602</v>
+        <v>523909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093802</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2020469</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>744</v>
+        <v>2615</v>
       </c>
       <c r="D16" s="7">
-        <v>693614</v>
+        <v>2645683</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>1199</v>
+        <v>4323</v>
       </c>
       <c r="I16" s="7">
-        <v>885509</v>
+        <v>2742099</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>1943</v>
+        <v>6938</v>
       </c>
       <c r="N16" s="7">
-        <v>1579122</v>
+        <v>5387783</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>261</v>
+        <v>759</v>
       </c>
       <c r="D17" s="7">
-        <v>271630</v>
+        <v>812941</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>361</v>
+        <v>1034</v>
       </c>
       <c r="I17" s="7">
-        <v>263698</v>
+        <v>916573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>622</v>
+        <v>1793</v>
       </c>
       <c r="N17" s="7">
-        <v>535328</v>
+        <v>1729513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965244</v>
+        <v>3458624</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1149207</v>
+        <v>3658672</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8731</v>
       </c>
       <c r="N18" s="7">
-        <v>2114450</v>
+        <v>7117296</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2615</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2579138</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4323</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2941275</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6938</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5520414</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>759</v>
-      </c>
-      <c r="D20" s="7">
-        <v>804853</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I20" s="7">
-        <v>862943</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1793</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1667796</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383991</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8731</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7188210</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
